--- a/biology/Médecine/Tumeurs_endocrines/Tumeurs_endocrines.xlsx
+++ b/biology/Médecine/Tumeurs_endocrines/Tumeurs_endocrines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tumeurs endocrines sont des tumeurs touchant le système endocrinien. 
 Souvent classées parmi les tumeurs dites « neuroendocriniennes » (NET) et parfois considérées comme des maladies rares, elles sont souvent bénignes, mais pas toujours. Quand un tissu fonctionnel est touché, il y a production anormale d'une ou plusieurs hormones, avec alors des symptômes inhabituels par rapport aux autres tumeurs.
-Certaines de ces tumeurs sont restées longtemps méconnues car difficiles à identifier en raison d'une large gamme de symptômes, non spécifiques de cette maladie, facilement confondus avec ceux d’affections bénignes[1].
-Certaines de ces tumeurs sont en forte augmentation dans la population des pays riches depuis les années 1970[2] ; Incidence des « tumeurs endocrines pancréatiques métastasiques bien différentiées » multipliée par 5 de 1975 à 2004 ; Incidence multipliée par 7 dans le registre norvégien (Hepatoweb)[3].
+Certaines de ces tumeurs sont restées longtemps méconnues car difficiles à identifier en raison d'une large gamme de symptômes, non spécifiques de cette maladie, facilement confondus avec ceux d’affections bénignes.
+Certaines de ces tumeurs sont en forte augmentation dans la population des pays riches depuis les années 1970 ; Incidence des « tumeurs endocrines pancréatiques métastasiques bien différentiées » multipliée par 5 de 1975 à 2004 ; Incidence multipliée par 7 dans le registre norvégien (Hepatoweb).
 </t>
         </is>
       </c>
@@ -514,17 +526,19 @@
           <t>Typologie des tumeurs, et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut les classer en :
-« Tumeur fonctionnelle » (associée à une hypersécrétion hormonale ; avec des symptômes de perturbation hormonale[4]) ou en ;
-« Tumeurs non fonctionnelles » (révélées par un syndrome tumoral généralement fortuitement découvert à la palpation ou à la suite d'une compression d'un organe de voisinage[4] ; ce sont largement les plus fréquentes des tumeurs neuroendocrines).
+« Tumeur fonctionnelle » (associée à une hypersécrétion hormonale ; avec des symptômes de perturbation hormonale) ou en ;
+« Tumeurs non fonctionnelles » (révélées par un syndrome tumoral généralement fortuitement découvert à la palpation ou à la suite d'une compression d'un organe de voisinage ; ce sont largement les plus fréquentes des tumeurs neuroendocrines).
 Les tumeurs fonctionnelles sont :
-les insulinomes (risque exceptionnel de malignité) ; symptômes : hypoglycémie y compris en épreuve de jeûne[5],[4] ;
-les gastrinomes  (dont 20 à 40 % sont des tumeurs malignes) ; symptômes : ulcère duodénal + diarrhée (syndrome de Zollinger Ellison), à confirmer par test à la sécrétine[6],[4] ;
+les insulinomes (risque exceptionnel de malignité) ; symptômes : hypoglycémie y compris en épreuve de jeûne, ;
+les gastrinomes  (dont 20 à 40 % sont des tumeurs malignes) ; symptômes : ulcère duodénal + diarrhée (syndrome de Zollinger Ellison), à confirmer par test à la sécrétine, ;
 les glucagonomes (qui sont souvent des tumeurs malignes) ; symptômes : érythème nécrolytique migrateur, diabète, cachexie ;
-les VIPome (ou vipome) ; symptômes : diarrhée aqueuse profuse, hypokaliémie, achlorhydrie, persistant en épreuve de jeûne[4] ;
-les somatostatinome ; symptômes : lithiase vésiculaire, diabète, stéatorrhée, achlorhydrie[4] ;
+les VIPome (ou vipome) ; symptômes : diarrhée aqueuse profuse, hypokaliémie, achlorhydrie, persistant en épreuve de jeûne ;
+les somatostatinome ; symptômes : lithiase vésiculaire, diabète, stéatorrhée, achlorhydrie ;
 Elles sont uniques, sporadiques ou multiples, et peuvent se présenter comme des tumeurs carcinoïdes atypiques.
 </t>
         </is>
@@ -554,13 +568,15 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles touchent certains organes du système nerveux et/ou du système endocrinien, et se forment dans divers organes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles touchent certains organes du système nerveux et/ou du système endocrinien, et se forment dans divers organes :
 glandes (hypophyse, parathyroïdes, thyroïde, thymus, pancréas, surrénales) ;
 tractus gastro-intestinal ;
 poumons.
-Yao JC et al., dans une étude (2008)[2] ayant porté sur 35 618 patients, notent que le site de la tumeur primaire varie selon l'origine ethnique ou géographique ; le poumon est plus touché chez les patients américains blancs alors que le rectum l'est plus chez les patients venant des îles de l'Asie-Pacifique, les amérindiens et natifs de l'Alaska ou d'Afrique[2].
+Yao JC et al., dans une étude (2008) ayant porté sur 35 618 patients, notent que le site de la tumeur primaire varie selon l'origine ethnique ou géographique ; le poumon est plus touché chez les patients américains blancs alors que le rectum l'est plus chez les patients venant des îles de l'Asie-Pacifique, les amérindiens et natifs de l'Alaska ou d'Afrique.
 </t>
         </is>
       </c>
@@ -589,7 +605,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au vu des symptômes, la plupart des cas peuvent être confondus avec de nombreuses maladies bénignes.
 Ces tumeurs ne doivent pas être confondues avec un cancer « classique » (tumeur exocrine), lequel nécessite un traitement différent.
@@ -621,10 +639,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont en cours d'exploration, y compris sur l'animal de laboratoire. 
-Quand plusieurs glandes sont touchées à la fois, il peut s'agir d'une néoplasie endocrinienne multiple (NEM) d'origine génétique[4], mais l’augmentation de la prévalence et les organes touchés peuvent laisser penser à une cause environnementale (perturbateurs endocriniens ?) et à une contamination par l’alimentation et la pollution de l’air (car les poumons et l’intestin sont très souvent touchés). L'origine professionnelle de certaines de ces tumeurs a été prouvé (cas particulier d'un travailleur exposé au nickel qui développe un cancer de l'ethmoïde avec composante neuroendocrine[7]).
+Quand plusieurs glandes sont touchées à la fois, il peut s'agir d'une néoplasie endocrinienne multiple (NEM) d'origine génétique, mais l’augmentation de la prévalence et les organes touchés peuvent laisser penser à une cause environnementale (perturbateurs endocriniens ?) et à une contamination par l’alimentation et la pollution de l’air (car les poumons et l’intestin sont très souvent touchés). L'origine professionnelle de certaines de ces tumeurs a été prouvé (cas particulier d'un travailleur exposé au nickel qui développe un cancer de l'ethmoïde avec composante neuroendocrine).
 </t>
         </is>
       </c>
@@ -653,12 +673,14 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est mal connue dans le monde.
-Dans les pays riches, l'incidence de certaines de ces tumeurs est en nette augmentation, et c'est le cas aux États-Unis[2]. C'est le cas des « tumeurs endocrines pancréatiques bien différenciées », notamment pour le poumon, l'intestin grêle et le rectum[2].
-Selon les données disponibles de 2004 à 2008, les tumeurs neuroendocrines arrivent en seconde position, derrière les cancers du colon et du rectum, et devant le cancer de l'estomac[2],[8],[9].
-Selon Net-Groep, une ONG de patients spécialisée dans ce domaine, « les patients atteints de ces tumeurs restent avec des symptômes inexpliqués pendant environ 5 ans »[1].
+Dans les pays riches, l'incidence de certaines de ces tumeurs est en nette augmentation, et c'est le cas aux États-Unis. C'est le cas des « tumeurs endocrines pancréatiques bien différenciées », notamment pour le poumon, l'intestin grêle et le rectum.
+Selon les données disponibles de 2004 à 2008, les tumeurs neuroendocrines arrivent en seconde position, derrière les cancers du colon et du rectum, et devant le cancer de l'estomac.
+Selon Net-Groep, une ONG de patients spécialisée dans ce domaine, « les patients atteints de ces tumeurs restent avec des symptômes inexpliqués pendant environ 5 ans ».
 </t>
         </is>
       </c>
@@ -687,10 +709,12 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dépend de facteurs tels que la localisation dans le corps de la « tumeur primitive », le stade tumoral et la présence ou non de métastases, l'âge du patient...
-Le taux de survie moyen s'est beaucoup amélioré depuis les années 1970[2], mais le pronostic de survie des patients avec métastases n'est pas très bon (2 ans)[10]
+Le taux de survie moyen s'est beaucoup amélioré depuis les années 1970, mais le pronostic de survie des patients avec métastases n'est pas très bon (2 ans)
 </t>
         </is>
       </c>
@@ -719,9 +743,11 @@
           <t>Exemple de personnalité affectée</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steve Jobs est mort d'une tumeur endocrine au pancréas et non d’un cancer du pancréas classique[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steve Jobs est mort d'une tumeur endocrine au pancréas et non d’un cancer du pancréas classique.
 </t>
         </is>
       </c>
@@ -750,7 +776,9 @@
           <t>Codes ICD-9-CM de classification des tumeurs neuroendocrines</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Une codification (en anglais ci-dessous) permet de mieux traiter ou orienter les malades ; elle permet aussi un suivi statistique et épidémiologique plus fin, qui pourrait notamment conduire à identifier certaines causes à l'augmentation de la prévalence de certains de ces cancers ;
 209 Neuroendocrine tumors
